--- a/linpack/results/linpack.xlsx
+++ b/linpack/results/linpack.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="6040" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Linpack</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Native</t>
   </si>
@@ -30,19 +27,59 @@
     <t>Docker</t>
   </si>
   <si>
-    <t>VM</t>
+    <t>KVM</t>
+  </si>
+  <si>
+    <t>GUPS</t>
+  </si>
+  <si>
+    <t>Single Socket</t>
+  </si>
+  <si>
+    <t>Two-Socket</t>
+  </si>
+  <si>
+    <t>RAW DATA</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -63,18 +100,520 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="23">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GUPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$B$30:$D$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$B$31:$D$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$18:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docker</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2119510808"/>
+        <c:axId val="-2119507832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2119510808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119507832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2119507832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Giga</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Updates per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119510808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GUPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$30:$G$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.133385878389758</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.981023010546754</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.565772761765098</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$E$31:$G$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.133385878389758</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.981023010546754</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.565772761765098</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$18:$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Docker</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>290.82864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290.86775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.28326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2137657288"/>
+        <c:axId val="2082812488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2137657288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2082812488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2082812488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Linpack GFLOPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137657288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,38 +938,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D4"/>
+  <dimension ref="A16:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
+    <row r="16" spans="1:7" ht="18">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="18">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="18">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>289.83359999999999</v>
-      </c>
-      <c r="C4">
-        <v>288.99459999999999</v>
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18">
+      <c r="A19" s="1"/>
+      <c r="E19" s="1">
+        <v>291.5018</v>
+      </c>
+      <c r="F19" s="1">
+        <v>290.96699999999998</v>
+      </c>
+      <c r="G19" s="1">
+        <v>132.70670000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18">
+      <c r="A20" s="1"/>
+      <c r="E20" s="1">
+        <v>291.35109999999997</v>
+      </c>
+      <c r="F20" s="1">
+        <v>289.47430000000003</v>
+      </c>
+      <c r="G20" s="1">
+        <v>132.9015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18">
+      <c r="A21" s="1"/>
+      <c r="E21" s="1">
+        <v>290.2783</v>
+      </c>
+      <c r="F21" s="1">
+        <v>290.68970000000002</v>
+      </c>
+      <c r="G21" s="1">
+        <v>132.86070000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18">
+      <c r="A22" s="1"/>
+      <c r="E22" s="1">
+        <v>292.18740000000003</v>
+      </c>
+      <c r="F22" s="1">
+        <v>290.87380000000002</v>
+      </c>
+      <c r="G22" s="1">
+        <v>132.614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18">
+      <c r="A23" s="1"/>
+      <c r="E23" s="1">
+        <v>290.20600000000002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>290.79300000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>132.6397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18">
+      <c r="A24" s="1"/>
+      <c r="E24" s="1">
+        <v>289.53500000000003</v>
+      </c>
+      <c r="F24" s="1">
+        <v>292.16140000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>132.5018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18">
+      <c r="A25" s="1"/>
+      <c r="E25" s="1">
+        <v>291.82440000000003</v>
+      </c>
+      <c r="F25" s="1">
+        <v>291.29919999999998</v>
+      </c>
+      <c r="G25" s="1">
+        <v>132.65459999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="1"/>
+      <c r="E26" s="1">
+        <v>289.51350000000002</v>
+      </c>
+      <c r="F26" s="1">
+        <v>289.36110000000002</v>
+      </c>
+      <c r="G26" s="1">
+        <v>108.7559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="1"/>
+      <c r="E27" s="1">
+        <v>289.55220000000003</v>
+      </c>
+      <c r="F27" s="1">
+        <v>290.61559999999997</v>
+      </c>
+      <c r="G27" s="1">
+        <v>132.3587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18">
+      <c r="A28" s="1"/>
+      <c r="E28" s="1">
+        <v>292.33670000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>292.44240000000002</v>
+      </c>
+      <c r="G28" s="1">
+        <v>132.839</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="e">
+        <f>AVERAGE(B19:B28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C29" s="1" t="e">
+        <f t="shared" ref="C29:G29" si="0">AVERAGE(C19:C28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>290.82864000000001</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>290.86775</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>130.28325999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="e">
+        <f>STDEV(B19:B28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C30" s="1" t="e">
+        <f t="shared" ref="C30:G30" si="1">STDEV(C19:C28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1333858783897577</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98102301054675412</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5657727617650981</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="e">
+        <f>STDEV(B19:B28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f t="shared" ref="C31:G31" si="2">STDEV(C19:C28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1333858783897577</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98102301054675412</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="2"/>
+        <v>7.5657727617650981</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/linpack/results/linpack.xlsx
+++ b/linpack/results/linpack.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="3260" yWindow="1320" windowWidth="19100" windowHeight="18520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Native</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>KVM untuned</t>
+  </si>
+  <si>
+    <t>KVM tuned</t>
   </si>
 </sst>
 </file>
@@ -100,8 +106,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -132,7 +144,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -144,6 +156,9 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -155,6 +170,9 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -284,11 +302,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2119510808"/>
-        <c:axId val="-2119507832"/>
+        <c:axId val="2065991960"/>
+        <c:axId val="2064363448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2119510808"/>
+        <c:axId val="2065991960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -297,7 +315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119507832"/>
+        <c:crossAx val="2064363448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -305,7 +323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119507832"/>
+        <c:axId val="2064363448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -340,7 +358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119510808"/>
+        <c:crossAx val="2065991960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -399,10 +417,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$30:$G$30</c:f>
+                <c:f>Sheet1!$E$30:$H$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
                     <c:v>1.133385878389758</c:v>
                   </c:pt>
@@ -411,16 +429,19 @@
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>7.565772761765098</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.450492583151591</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$E$31:$G$31</c:f>
+                <c:f>Sheet1!$E$31:$H$31</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
                     <c:v>1.133385878389758</c:v>
                   </c:pt>
@@ -429,6 +450,9 @@
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>7.565772761765098</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.450492583151591</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -436,9 +460,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$18:$G$18</c:f>
+              <c:f>Sheet1!$E$18:$H$18</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Native</c:v>
                 </c:pt>
@@ -446,17 +470,20 @@
                   <c:v>Docker</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>KVM</c:v>
+                  <c:v>KVM untuned</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KVM tuned</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$29:$G$29</c:f>
+              <c:f>Sheet1!$E$29:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>290.82864</c:v>
                 </c:pt>
@@ -465,6 +492,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>130.28326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>284.19874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,11 +509,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2137657288"/>
-        <c:axId val="2082812488"/>
+        <c:axId val="2071627864"/>
+        <c:axId val="2071733784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137657288"/>
+        <c:axId val="2071627864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082812488"/>
+        <c:crossAx val="2071733784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -500,7 +530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082812488"/>
+        <c:axId val="2071733784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137657288"/>
+        <c:crossAx val="2071627864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -938,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A16:G31"/>
+  <dimension ref="A16:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -961,7 +991,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="18">
+    <row r="17" spans="1:8" ht="18">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -974,7 +1004,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="18">
+    <row r="18" spans="1:8" ht="18">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -994,10 +1024,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18">
+        <v>9</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18">
       <c r="A19" s="1"/>
       <c r="E19" s="1">
         <v>291.5018</v>
@@ -1008,8 +1041,11 @@
       <c r="G19" s="1">
         <v>132.70670000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="18">
+      <c r="H19">
+        <v>283.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18">
       <c r="A20" s="1"/>
       <c r="E20" s="1">
         <v>291.35109999999997</v>
@@ -1020,8 +1056,11 @@
       <c r="G20" s="1">
         <v>132.9015</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="18">
+      <c r="H20">
+        <v>286.10809999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18">
       <c r="A21" s="1"/>
       <c r="E21" s="1">
         <v>290.2783</v>
@@ -1032,8 +1071,11 @@
       <c r="G21" s="1">
         <v>132.86070000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="18">
+      <c r="H21" s="1">
+        <v>282.76049999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18">
       <c r="A22" s="1"/>
       <c r="E22" s="1">
         <v>292.18740000000003</v>
@@ -1044,8 +1086,11 @@
       <c r="G22" s="1">
         <v>132.614</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="18">
+      <c r="H22">
+        <v>285.90820000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18">
       <c r="A23" s="1"/>
       <c r="E23" s="1">
         <v>290.20600000000002</v>
@@ -1056,8 +1101,11 @@
       <c r="G23" s="1">
         <v>132.6397</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18">
+      <c r="H23">
+        <v>282.30180000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18">
       <c r="A24" s="1"/>
       <c r="E24" s="1">
         <v>289.53500000000003</v>
@@ -1068,8 +1116,11 @@
       <c r="G24" s="1">
         <v>132.5018</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="18">
+      <c r="H24">
+        <v>284.2944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18">
       <c r="A25" s="1"/>
       <c r="E25" s="1">
         <v>291.82440000000003</v>
@@ -1080,8 +1131,11 @@
       <c r="G25" s="1">
         <v>132.65459999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="18">
+      <c r="H25">
+        <v>284.279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18">
       <c r="A26" s="1"/>
       <c r="E26" s="1">
         <v>289.51350000000002</v>
@@ -1092,8 +1146,11 @@
       <c r="G26" s="1">
         <v>108.7559</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="18">
+      <c r="H26">
+        <v>285.9597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18">
       <c r="A27" s="1"/>
       <c r="E27" s="1">
         <v>289.55220000000003</v>
@@ -1104,8 +1161,11 @@
       <c r="G27" s="1">
         <v>132.3587</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="18">
+      <c r="H27">
+        <v>282.322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18">
       <c r="A28" s="1"/>
       <c r="E28" s="1">
         <v>292.33670000000001</v>
@@ -1116,8 +1176,11 @@
       <c r="G28" s="1">
         <v>132.839</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="18">
+      <c r="H28">
+        <v>284.06369999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,7 +1189,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C29" s="1" t="e">
-        <f t="shared" ref="C29:G29" si="0">AVERAGE(C19:C28)</f>
+        <f t="shared" ref="C29:H29" si="0">AVERAGE(C19:C28)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D29" s="1" t="e">
@@ -1145,8 +1208,12 @@
         <f t="shared" si="0"/>
         <v>130.28325999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="18">
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>284.19873999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1222,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C30" s="1" t="e">
-        <f t="shared" ref="C30:G30" si="1">STDEV(C19:C28)</f>
+        <f t="shared" ref="C30:H30" si="1">STDEV(C19:C28)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D30" s="1" t="e">
@@ -1174,8 +1241,12 @@
         <f t="shared" si="1"/>
         <v>7.5657727617650981</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="18">
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4504925831515911</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1184,7 +1255,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C31" s="1" t="e">
-        <f t="shared" ref="C31:G31" si="2">STDEV(C19:C28)</f>
+        <f t="shared" ref="C31:H31" si="2">STDEV(C19:C28)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="1" t="e">
@@ -1202,6 +1273,10 @@
       <c r="G31" s="1">
         <f t="shared" si="2"/>
         <v>7.5657727617650981</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4504925831515911</v>
       </c>
     </row>
   </sheetData>
